--- a/ZoningAtlas/raw_data/Excel_workbooks/Windham_Brattleboro_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windham_Brattleboro_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackwinigrad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD4D5F8-E07A-5141-AC13-AB1BB37D66EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35327909-0D06-2743-964E-1DE6E4482683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="153">
   <si>
     <t>County</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t>300 plus 100 per bedroom</t>
+  </si>
+  <si>
+    <t>Tucker Schulz</t>
+  </si>
+  <si>
+    <t>Effective Date Zoning Text</t>
+  </si>
+  <si>
+    <t>Effective Date Zoning Map</t>
   </si>
 </sst>
 </file>
@@ -558,84 +567,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="202">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="192">
     <dxf>
       <fill>
         <patternFill>
@@ -2290,13 +2229,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AE144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD122" sqref="AD122"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2332,11 +2271,9 @@
     <col min="29" max="29" width="14.83203125" customWidth="1"/>
     <col min="30" max="30" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.83203125" customWidth="1"/>
-    <col min="32" max="32" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2430,12 +2367,8 @@
       <c r="AE1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2499,9 +2432,8 @@
         <v>132</v>
       </c>
       <c r="AE2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2565,9 +2497,8 @@
         <v>133</v>
       </c>
       <c r="AE3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2631,9 +2562,8 @@
         <v>128</v>
       </c>
       <c r="AE4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2697,9 +2627,8 @@
         <v>5</v>
       </c>
       <c r="AE5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2763,9 +2692,8 @@
         <v>5</v>
       </c>
       <c r="AE6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2829,9 +2757,8 @@
         <v>6</v>
       </c>
       <c r="AE7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2895,9 +2822,8 @@
         <v>98</v>
       </c>
       <c r="AE8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2961,9 +2887,8 @@
         <v>6</v>
       </c>
       <c r="AE9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3027,9 +2952,8 @@
         <v>6</v>
       </c>
       <c r="AE10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3093,9 +3017,8 @@
         <v>10</v>
       </c>
       <c r="AE11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3159,9 +3082,8 @@
         <v>10</v>
       </c>
       <c r="AE12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3225,9 +3147,8 @@
         <v>10</v>
       </c>
       <c r="AE13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3291,9 +3212,8 @@
         <v>10</v>
       </c>
       <c r="AE14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3357,9 +3277,8 @@
         <v>10</v>
       </c>
       <c r="AE15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3423,9 +3342,8 @@
         <v>10</v>
       </c>
       <c r="AE16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3489,9 +3407,8 @@
         <v>11</v>
       </c>
       <c r="AE17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3555,9 +3472,8 @@
         <v>11</v>
       </c>
       <c r="AE18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3621,9 +3537,8 @@
         <v>148</v>
       </c>
       <c r="AE19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3657,10 +3572,8 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3698,7 +3611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3736,7 +3649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3812,7 +3725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3840,7 +3753,7 @@
       <c r="P25">
         <v>300</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25">
         <v>150</v>
       </c>
       <c r="T25">
@@ -3850,7 +3763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3882,12 +3795,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3922,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3948,7 +3861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3962,12 +3875,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3975,7 +3888,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -4009,10 +3922,8 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4064,9 +3975,8 @@
       <c r="AA34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AE34" s="1"/>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4118,9 +4028,8 @@
       <c r="AA35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -4158,7 +4067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -4175,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -4213,7 +4122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4251,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -4289,7 +4198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -4327,7 +4236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -4359,12 +4268,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4399,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4434,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -4460,7 +4369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4474,12 +4383,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -4487,7 +4396,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -4521,10 +4430,8 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -4559,7 +4466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -4594,7 +4501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4629,7 +4536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -4643,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -4674,11 +4581,11 @@
       <c r="T55">
         <v>20</v>
       </c>
-      <c r="AD55" s="7">
+      <c r="AD55" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -4709,11 +4616,11 @@
       <c r="T56">
         <v>20</v>
       </c>
-      <c r="AD56" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD56" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -4744,11 +4651,11 @@
       <c r="T57">
         <v>20</v>
       </c>
-      <c r="AD57" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD57" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -4783,7 +4690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -4812,12 +4719,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -4849,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -4881,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -4916,7 +4823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -4951,7 +4858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -4977,7 +4884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -4988,12 +4895,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -5001,12 +4908,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -5070,12 +4977,8 @@
       <c r="AE70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -5110,7 +5013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -5145,7 +5048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -5180,7 +5083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -5194,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5225,11 +5128,11 @@
       <c r="T75">
         <v>20</v>
       </c>
-      <c r="AD75" s="7">
+      <c r="AD75" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -5260,11 +5163,11 @@
       <c r="T76">
         <v>20</v>
       </c>
-      <c r="AD76" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD76" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -5295,11 +5198,11 @@
       <c r="T77">
         <v>20</v>
       </c>
-      <c r="AD77" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD77" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -5334,7 +5237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -5363,12 +5266,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -5400,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -5432,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -5467,7 +5370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -5502,7 +5405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -5528,7 +5431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -5539,12 +5442,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -5552,17 +5455,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -5626,12 +5529,8 @@
       <c r="AE91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -5663,7 +5562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -5695,7 +5594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -5727,7 +5626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -5738,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -5766,11 +5665,11 @@
       <c r="T96">
         <v>20</v>
       </c>
-      <c r="AD96" s="7">
+      <c r="AD96" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -5798,11 +5697,11 @@
       <c r="T97">
         <v>20</v>
       </c>
-      <c r="AD97" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD97" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -5830,11 +5729,11 @@
       <c r="T98">
         <v>20</v>
       </c>
-      <c r="AD98" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD98" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -5866,7 +5765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -5892,12 +5791,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -5926,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -5955,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -5987,7 +5886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -6019,7 +5918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -6045,7 +5944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -6053,12 +5952,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -6066,17 +5965,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -6140,82 +6039,78 @@
       <c r="AE112" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF112" s="1"/>
-      <c r="AG112" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -6279,12 +6174,8 @@
       <c r="AE122" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -6322,7 +6213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -6360,7 +6251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -6398,7 +6289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -6436,12 +6327,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -6479,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -6517,7 +6408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -6555,7 +6446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -6593,12 +6484,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -6662,12 +6553,8 @@
       <c r="AE133" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF133" s="1"/>
-      <c r="AG133" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -6693,7 +6580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -6704,17 +6591,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -6778,12 +6665,8 @@
       <c r="AE138" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF138" s="1"/>
-      <c r="AG138" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -6809,12 +6692,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -6840,7 +6723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -6866,7 +6749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -6930,12 +6813,8 @@
       <c r="AE143" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF143" s="1"/>
-      <c r="AG143" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -6944,1014 +6823,964 @@
   <mergeCells count="1">
     <mergeCell ref="B113:Z113"/>
   </mergeCells>
-  <conditionalFormatting sqref="B86:B89 D86:D90 F86:F90 H86:H90 J86:J90 L86:L90 N87:N90 T87:T90 B90:C90 E90 G90 I90 K90 M90 O90 Q90 S90 U90 V86:V90 X71:X90 Z71:Z90 W90 Y90 AA90">
-    <cfRule type="expression" dxfId="201" priority="277">
+  <conditionalFormatting sqref="B71:B85 AB51:AE54 AE55:AE57 AB58:AE69">
+    <cfRule type="expression" dxfId="191" priority="45" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:B106">
+    <cfRule type="expression" dxfId="190" priority="42" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107">
+    <cfRule type="expression" dxfId="189" priority="44">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B111 D107:D111 F107:F111 H107:H111 J107:J111 L92:L111 N108:N111 T108:T111 V107:V111 X92:X111 Z92:Z111">
-    <cfRule type="expression" dxfId="200" priority="276" stopIfTrue="1">
+  <conditionalFormatting sqref="B51:C59 E51:E59 G51:K59 S51:S62 U51:AA62 M51:O65 Q51:Q69 B60:K65 S63:AA69 B66:O69">
+    <cfRule type="expression" dxfId="188" priority="278" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114:C114 E114 G114 I114 K114 M114 O114 Q114 S114 U114 W114 Y114 AA114 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 V114:V121 X114:X121 Z114:Z121 B115:B121">
+    <cfRule type="expression" dxfId="187" priority="275" stopIfTrue="1">
+      <formula>OR(B$17="", B$17="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123:C126 E123:E126 G123:G126 I123:I126 K123:K126 M123:M126 O123:O126 Q123:Q126 S123:S126 U123:U126 W123:W126 Y123:Y126 AA123:AA126 D123:D132 F123:F132 H123:H132 J123:J132 L123:L132 N123:N132 X123:X132 Z123:Z132 B127:B128 B129:C129 E129 G129 I129 K129 M129 O129 Q129 S129 U129 W129 Y129 AA129 B130:B132">
+    <cfRule type="expression" dxfId="186" priority="274">
+      <formula>OR(B$16="", B$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134 E134 G134 I134 K134 M134 O134 Q134 S134 U134 W134 Y134 AA134 D134:D137 F134:F137 H134:H137 J134:J137 L134:L137 N134:N137 P134:P137 R134:R137 T134:T137 V134:V137 X134:X137 Z134:Z137 B135:B136 B137:C137 E137 G137 I137 K137 M137 O137 Q137 S137 U137 W137 Y137 AA137">
+    <cfRule type="expression" dxfId="185" priority="273" stopIfTrue="1">
+      <formula>OR(B$18="Prohibited", B$18="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:O32 Q21:Q32 S21:AA32 AB21:AE31 AE32">
+    <cfRule type="expression" dxfId="184" priority="280" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:O37 Q34:Q49 S34:AA49 B38:C42 E38:O42 B43:O49 AB34:AE37 AE38:AE40 AB41:AE48 AE49">
+    <cfRule type="expression" dxfId="183" priority="279">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C89">
+    <cfRule type="expression" dxfId="182" priority="272" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C110">
+    <cfRule type="expression" dxfId="181" priority="270" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="expression" dxfId="180" priority="271">
+      <formula>OR(C$14="", C$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:C120">
+    <cfRule type="expression" dxfId="179" priority="263" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="expression" dxfId="178" priority="264">
+      <formula>OR(C$14="", C$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:C128">
+    <cfRule type="expression" dxfId="177" priority="261" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130:C132">
+    <cfRule type="expression" dxfId="176" priority="258" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135:C136">
+    <cfRule type="expression" dxfId="175" priority="256" stopIfTrue="1">
+      <formula>OR(C$13="", C$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D42">
+    <cfRule type="expression" dxfId="174" priority="41" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D54">
+    <cfRule type="expression" dxfId="173" priority="40">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D59">
+    <cfRule type="expression" dxfId="172" priority="39" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D74">
+    <cfRule type="expression" dxfId="171" priority="37">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D79">
+    <cfRule type="expression" dxfId="170" priority="36" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D85">
+    <cfRule type="expression" dxfId="169" priority="38" stopIfTrue="1">
+      <formula>OR(D$13="", D$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D95">
+    <cfRule type="expression" dxfId="168" priority="34">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:D100">
+    <cfRule type="expression" dxfId="167" priority="33" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101:D106">
+    <cfRule type="expression" dxfId="166" priority="35" stopIfTrue="1">
+      <formula>OR(D$13="", D$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E89">
+    <cfRule type="expression" dxfId="165" priority="255" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E110">
+    <cfRule type="expression" dxfId="164" priority="253" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="expression" dxfId="163" priority="254">
+      <formula>OR(E$14="", E$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E120">
+    <cfRule type="expression" dxfId="162" priority="246" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" dxfId="161" priority="247">
+      <formula>OR(E$14="", E$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E128">
+    <cfRule type="expression" dxfId="160" priority="244" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E132">
+    <cfRule type="expression" dxfId="159" priority="241" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135:E136">
+    <cfRule type="expression" dxfId="158" priority="239" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F59">
+    <cfRule type="expression" dxfId="157" priority="32">
+      <formula>OR(F$12="", F$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F79">
+    <cfRule type="expression" dxfId="156" priority="30">
+      <formula>OR(F$12="", F$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F85">
+    <cfRule type="expression" dxfId="155" priority="31" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F100">
+    <cfRule type="expression" dxfId="154" priority="28">
+      <formula>OR(F$12="", F$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:F106">
+    <cfRule type="expression" dxfId="153" priority="29" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71:G89">
+    <cfRule type="expression" dxfId="152" priority="238" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92:G110">
+    <cfRule type="expression" dxfId="151" priority="236" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111">
+    <cfRule type="expression" dxfId="150" priority="237">
+      <formula>OR(G$14="", G$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:G120">
+    <cfRule type="expression" dxfId="149" priority="229" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="expression" dxfId="148" priority="230">
+      <formula>OR(G$14="", G$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G128">
+    <cfRule type="expression" dxfId="147" priority="227" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130:G132">
+    <cfRule type="expression" dxfId="146" priority="224" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135:G136">
+    <cfRule type="expression" dxfId="145" priority="222" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H85">
+    <cfRule type="expression" dxfId="144" priority="27" stopIfTrue="1">
+      <formula>OR(H$13="", H$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92:H106">
+    <cfRule type="expression" dxfId="143" priority="26" stopIfTrue="1">
+      <formula>OR(H$13="", H$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:I89">
+    <cfRule type="expression" dxfId="142" priority="221" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I92:I110">
+    <cfRule type="expression" dxfId="141" priority="219" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111">
+    <cfRule type="expression" dxfId="140" priority="220">
+      <formula>OR(I$14="", I$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:I120">
+    <cfRule type="expression" dxfId="139" priority="212" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121">
+    <cfRule type="expression" dxfId="138" priority="213">
+      <formula>OR(I$14="", I$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127:I128">
+    <cfRule type="expression" dxfId="137" priority="210" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130:I132">
+    <cfRule type="expression" dxfId="136" priority="207" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I135:I136">
+    <cfRule type="expression" dxfId="135" priority="205" stopIfTrue="1">
+      <formula>OR(I$13="", I$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J85">
+    <cfRule type="expression" dxfId="134" priority="25" stopIfTrue="1">
+      <formula>OR(J$13="", J$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92:J106">
+    <cfRule type="expression" dxfId="133" priority="24" stopIfTrue="1">
+      <formula>OR(J$13="", J$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:K89">
+    <cfRule type="expression" dxfId="132" priority="204" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K92:K110">
+    <cfRule type="expression" dxfId="131" priority="202" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111">
+    <cfRule type="expression" dxfId="130" priority="203">
+      <formula>OR(K$14="", K$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:K120">
+    <cfRule type="expression" dxfId="129" priority="195" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K121">
+    <cfRule type="expression" dxfId="128" priority="196">
+      <formula>OR(K$14="", K$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K127:K128">
+    <cfRule type="expression" dxfId="127" priority="193" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K130:K132">
+    <cfRule type="expression" dxfId="126" priority="190" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K135:K136">
+    <cfRule type="expression" dxfId="125" priority="188" stopIfTrue="1">
+      <formula>OR(K$13="", K$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:L65">
+    <cfRule type="expression" dxfId="124" priority="22" stopIfTrue="1">
+      <formula>OR(L$15="", L$15="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71:L85">
+    <cfRule type="expression" dxfId="123" priority="23" stopIfTrue="1">
+      <formula>OR(L$15="", L$15="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L92:L111 X92:X111 Z92:Z111 D107:D111 F107:F111 H107:H111 J107:J111 V107:V111 B108:B111 N108:N111 T108:T111">
+    <cfRule type="expression" dxfId="122" priority="276" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:C114 E114 G114 I114 K114 M114 O114 Q114 S114 U114 D114:D121 F114:F121 H114:H121 J114:J121 L114:L121 N114:N121 P114:P121 R114:R121 T114:T121 B115:B121 W114 Y114 AA114 V114:V121 X114:X121 Z114:Z121">
-    <cfRule type="expression" dxfId="199" priority="275" stopIfTrue="1">
-      <formula>OR(B$17="", B$17="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123:C126 E123:E126 G123:G126 I123:I126 K123:K126 M123:M126 O123:O126 Q123:Q126 S123:S126 U123:U126 T132 B127:B128 B129:C129 E129 G129 I129 K129 M129 O129 Q129 S129 U129 B130:B132 W123:W126 Y123:Y126 AA123:AA126 X123:X132 Z123:Z132 W129 Y129 AA129 D123:D132 F123:F132 H123:H132 J123:J132 L123:L132 N123:N132 V132">
-    <cfRule type="expression" dxfId="198" priority="274">
-      <formula>OR(B$16="", B$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134 E134 G134 I134 K134 M134 O134 Q134 S134 U134 D134:D137 F134:F137 H134:H137 J134:J137 L134:L137 N134:N137 P134:P137 R134:R137 T134:T137 B135:B136 B137:C137 E137 G137 I137 K137 M137 O137 Q137 S137 U137 W134 Y134 AA134 V134:V137 X134:X137 Z134:Z137 W137 Y137 AA137">
-    <cfRule type="expression" dxfId="197" priority="273" stopIfTrue="1">
-      <formula>OR(B$18="Prohibited", B$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:O32 Q21:Q32 S21:AA32">
-    <cfRule type="expression" dxfId="196" priority="280" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C42 B34:O37 B43:O49 E38:O42 Q34:Q49 S34:AA49">
-    <cfRule type="expression" dxfId="195" priority="279">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:C59 E51:E59 G51:K59 B60:K65 B66:O69 M51:O65 Q51:Q69 S63:AA69 S51:S62 U51:AA62">
-    <cfRule type="expression" dxfId="194" priority="278" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C89">
-    <cfRule type="expression" dxfId="193" priority="272" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C110">
-    <cfRule type="expression" dxfId="192" priority="270" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="191" priority="271">
-      <formula>OR(C$14="", C$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="190" priority="263" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="189" priority="264">
-      <formula>OR(C$14="", C$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="188" priority="261" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="187" priority="258" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="186" priority="256" stopIfTrue="1">
-      <formula>OR(C$13="", C$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71:E89">
-    <cfRule type="expression" dxfId="185" priority="255" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E110">
-    <cfRule type="expression" dxfId="184" priority="253" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="183" priority="254">
-      <formula>OR(E$14="", E$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="182" priority="246" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="181" priority="247">
-      <formula>OR(E$14="", E$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="180" priority="244" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="178" priority="239" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G89">
-    <cfRule type="expression" dxfId="177" priority="238" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G92:G110">
-    <cfRule type="expression" dxfId="176" priority="236" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="175" priority="237">
-      <formula>OR(G$14="", G$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="174" priority="229" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="173" priority="230">
-      <formula>OR(G$14="", G$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="172" priority="227" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="171" priority="224" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135:G136">
-    <cfRule type="expression" dxfId="170" priority="222" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:I89">
-    <cfRule type="expression" dxfId="169" priority="221" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I92:I110">
-    <cfRule type="expression" dxfId="168" priority="219" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I111">
-    <cfRule type="expression" dxfId="167" priority="220">
-      <formula>OR(I$14="", I$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:I120">
-    <cfRule type="expression" dxfId="166" priority="212" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="165" priority="213">
-      <formula>OR(I$14="", I$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I128">
-    <cfRule type="expression" dxfId="164" priority="210" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130:I132">
-    <cfRule type="expression" dxfId="163" priority="207" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I135:I136">
-    <cfRule type="expression" dxfId="162" priority="205" stopIfTrue="1">
-      <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71:K89">
-    <cfRule type="expression" dxfId="161" priority="204" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K110">
-    <cfRule type="expression" dxfId="160" priority="202" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111">
-    <cfRule type="expression" dxfId="159" priority="203">
-      <formula>OR(K$14="", K$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K115:K120">
-    <cfRule type="expression" dxfId="158" priority="195" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K121">
-    <cfRule type="expression" dxfId="157" priority="196">
-      <formula>OR(K$14="", K$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K127:K128">
-    <cfRule type="expression" dxfId="156" priority="193" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K130:K132">
-    <cfRule type="expression" dxfId="155" priority="190" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K135:K136">
-    <cfRule type="expression" dxfId="154" priority="188" stopIfTrue="1">
-      <formula>OR(K$13="", K$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M71:M89">
-    <cfRule type="expression" dxfId="153" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="187" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M92:M110">
-    <cfRule type="expression" dxfId="152" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="185" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111">
-    <cfRule type="expression" dxfId="151" priority="186">
+    <cfRule type="expression" dxfId="119" priority="186">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115:M120">
-    <cfRule type="expression" dxfId="150" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="178" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="expression" dxfId="149" priority="179">
+    <cfRule type="expression" dxfId="117" priority="179">
       <formula>OR(M$14="", M$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M127:M128">
-    <cfRule type="expression" dxfId="148" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="176" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M130:M132">
-    <cfRule type="expression" dxfId="147" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="173" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135:M136">
-    <cfRule type="expression" dxfId="146" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="171" stopIfTrue="1">
       <formula>OR(M$13="", M$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N71:N86">
+    <cfRule type="expression" dxfId="113" priority="21" stopIfTrue="1">
+      <formula>OR(N$13="", N$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92:N107">
+    <cfRule type="expression" dxfId="112" priority="20" stopIfTrue="1">
+      <formula>OR(N$13="", N$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O71:O89">
-    <cfRule type="expression" dxfId="145" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="170" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O92:O110">
-    <cfRule type="expression" dxfId="144" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="168" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O111">
-    <cfRule type="expression" dxfId="143" priority="169">
+    <cfRule type="expression" dxfId="109" priority="169">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O115:O120">
-    <cfRule type="expression" dxfId="142" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="161" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O121">
-    <cfRule type="expression" dxfId="141" priority="162">
+    <cfRule type="expression" dxfId="107" priority="162">
       <formula>OR(O$14="", O$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O127:O128">
-    <cfRule type="expression" dxfId="140" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="159" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O130:O132">
-    <cfRule type="expression" dxfId="139" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="156" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O135:O136">
-    <cfRule type="expression" dxfId="138" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="154" stopIfTrue="1">
       <formula>OR(O$13="", O$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P21:P32">
+    <cfRule type="expression" dxfId="103" priority="288" stopIfTrue="1">
+      <formula>OR(R$11="", R$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P49">
+    <cfRule type="expression" dxfId="102" priority="291">
+      <formula>OR(R$12="", R$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51:P69">
+    <cfRule type="expression" dxfId="101" priority="300" stopIfTrue="1">
+      <formula>OR(R$13="", R$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P71:P90">
+    <cfRule type="expression" dxfId="100" priority="281">
+      <formula>OR(R$14="", R$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P92:P111">
+    <cfRule type="expression" dxfId="99" priority="283" stopIfTrue="1">
+      <formula>OR(R$15="", R$15="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P123:P131">
+    <cfRule type="expression" dxfId="98" priority="15">
+      <formula>OR(P$16="", P$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P132">
+    <cfRule type="expression" dxfId="97" priority="285">
+      <formula>OR(R$16="", R$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q71:Q89">
-    <cfRule type="expression" dxfId="137" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="153" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q92:Q110">
-    <cfRule type="expression" dxfId="136" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="151" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q111">
-    <cfRule type="expression" dxfId="135" priority="152">
+    <cfRule type="expression" dxfId="94" priority="152">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q115:Q120">
-    <cfRule type="expression" dxfId="134" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="144" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q121">
-    <cfRule type="expression" dxfId="133" priority="145">
+    <cfRule type="expression" dxfId="92" priority="145">
       <formula>OR(Q$14="", Q$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="expression" dxfId="132" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="142" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q130:Q132">
-    <cfRule type="expression" dxfId="131" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="139" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135:Q136">
-    <cfRule type="expression" dxfId="130" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="137" stopIfTrue="1">
       <formula>OR(Q$13="", Q$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R21:R32">
+    <cfRule type="expression" dxfId="88" priority="289" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R49">
+    <cfRule type="expression" dxfId="87" priority="292">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51:R59">
+    <cfRule type="expression" dxfId="86" priority="19">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R60:R69">
+    <cfRule type="expression" dxfId="85" priority="301" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R71:R79">
+    <cfRule type="expression" dxfId="84" priority="17">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R80:R86">
+    <cfRule type="expression" dxfId="83" priority="18" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R87:R90">
+    <cfRule type="expression" dxfId="82" priority="282">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R92:R111">
+    <cfRule type="expression" dxfId="81" priority="284" stopIfTrue="1">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R123:R131">
+    <cfRule type="expression" dxfId="80" priority="16">
+      <formula>OR(R$16="", R$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R132">
+    <cfRule type="expression" dxfId="79" priority="286">
+      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S71:S89">
-    <cfRule type="expression" dxfId="129" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="136" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S92:S110">
-    <cfRule type="expression" dxfId="128" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="134" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S111">
-    <cfRule type="expression" dxfId="127" priority="135">
+    <cfRule type="expression" dxfId="76" priority="135">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S115:S120">
-    <cfRule type="expression" dxfId="126" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="127" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S121">
-    <cfRule type="expression" dxfId="125" priority="128">
+    <cfRule type="expression" dxfId="74" priority="128">
       <formula>OR(S$14="", S$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S127:S128">
-    <cfRule type="expression" dxfId="124" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="125" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S130:S132">
-    <cfRule type="expression" dxfId="123" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="122" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S135:S136">
-    <cfRule type="expression" dxfId="122" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="120" stopIfTrue="1">
       <formula>OR(S$13="", S$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T51:T62">
+    <cfRule type="expression" dxfId="70" priority="14">
+      <formula>OR(T$12="", T$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T71:T82">
+    <cfRule type="expression" dxfId="69" priority="12">
+      <formula>OR(T$12="", T$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T83:T86">
+    <cfRule type="expression" dxfId="68" priority="13" stopIfTrue="1">
+      <formula>OR(T$13="", T$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T92:T103">
+    <cfRule type="expression" dxfId="67" priority="10">
+      <formula>OR(T$12="", T$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T104:T107">
+    <cfRule type="expression" dxfId="66" priority="11" stopIfTrue="1">
+      <formula>OR(T$13="", T$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T123:T132">
+    <cfRule type="expression" dxfId="65" priority="9">
+      <formula>OR(T$16="", T$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U71:U89">
-    <cfRule type="expression" dxfId="121" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="119" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U92:U110">
-    <cfRule type="expression" dxfId="120" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="117" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="expression" dxfId="119" priority="118">
+    <cfRule type="expression" dxfId="62" priority="118">
       <formula>OR(U$14="", U$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U115:U120">
-    <cfRule type="expression" dxfId="118" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="110" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U121">
-    <cfRule type="expression" dxfId="117" priority="111">
+    <cfRule type="expression" dxfId="60" priority="111">
       <formula>OR(U$14="", U$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127:U128">
-    <cfRule type="expression" dxfId="116" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="108" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U130:U132">
-    <cfRule type="expression" dxfId="115" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="105" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U135:U136">
-    <cfRule type="expression" dxfId="114" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="103" stopIfTrue="1">
       <formula>OR(U$13="", U$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V71:V85">
+    <cfRule type="expression" dxfId="56" priority="8" stopIfTrue="1">
+      <formula>OR(V$13="", V$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V92:V106">
+    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
+      <formula>OR(V$13="", V$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V123:V132">
+    <cfRule type="expression" dxfId="54" priority="6">
+      <formula>OR(V$16="", V$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W71:W89">
-    <cfRule type="expression" dxfId="113" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="102" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W92:W110">
-    <cfRule type="expression" dxfId="112" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="100" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W111">
-    <cfRule type="expression" dxfId="111" priority="101">
+    <cfRule type="expression" dxfId="51" priority="101">
       <formula>OR(W$14="", W$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W115:W120">
-    <cfRule type="expression" dxfId="110" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="98" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W121">
-    <cfRule type="expression" dxfId="109" priority="99">
+    <cfRule type="expression" dxfId="49" priority="99">
       <formula>OR(W$14="", W$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W127:W128">
-    <cfRule type="expression" dxfId="108" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="97" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W130:W132">
-    <cfRule type="expression" dxfId="107" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="96" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W135:W136">
-    <cfRule type="expression" dxfId="106" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="95" stopIfTrue="1">
       <formula>OR(W$13="", W$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X71:X90 Z71:Z90 B86:B89 D86:D90 F86:F90 H86:H90 J86:J90 L86:L90 V86:V90 N87:N90 T87:T90 B90:C90 E90 G90 I90 K90 M90 O90 Q90 S90 U90 W90 Y90 AA90">
+    <cfRule type="expression" dxfId="45" priority="277">
+      <formula>OR(B$14="", B$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Y71:Y89">
-    <cfRule type="expression" dxfId="105" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="94" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y92:Y110">
-    <cfRule type="expression" dxfId="104" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="92" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y111">
-    <cfRule type="expression" dxfId="103" priority="93">
+    <cfRule type="expression" dxfId="42" priority="93">
       <formula>OR(Y$14="", Y$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y115:Y120">
-    <cfRule type="expression" dxfId="102" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="90" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y121">
-    <cfRule type="expression" dxfId="101" priority="91">
+    <cfRule type="expression" dxfId="40" priority="91">
       <formula>OR(Y$14="", Y$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y127:Y128">
-    <cfRule type="expression" dxfId="100" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="89" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y130:Y132">
-    <cfRule type="expression" dxfId="99" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="88" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y135:Y136">
-    <cfRule type="expression" dxfId="98" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="87" stopIfTrue="1">
       <formula>OR(Y$13="", Y$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA71:AA89">
-    <cfRule type="expression" dxfId="97" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="86" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA92:AA110">
-    <cfRule type="expression" dxfId="96" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="84" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA111">
-    <cfRule type="expression" dxfId="95" priority="85">
+    <cfRule type="expression" dxfId="34" priority="85">
       <formula>OR(AA$14="", AA$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AA120">
-    <cfRule type="expression" dxfId="94" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="82" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA121">
-    <cfRule type="expression" dxfId="93" priority="83">
+    <cfRule type="expression" dxfId="32" priority="83">
       <formula>OR(AA$14="", AA$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA127:AA128">
-    <cfRule type="expression" dxfId="92" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="81" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA130:AA132">
-    <cfRule type="expression" dxfId="91" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="80" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA135:AA136">
-    <cfRule type="expression" dxfId="90" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="79" stopIfTrue="1">
       <formula>OR(AA$13="", AA$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB71:AB90 AF71:AF90 AC90:AE90 AG90">
-    <cfRule type="expression" dxfId="89" priority="75">
+  <conditionalFormatting sqref="AB71:AB90 AC90:AE90">
+    <cfRule type="expression" dxfId="28" priority="75">
       <formula>OR(AB$14="", AB$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB92:AB111 AD111 AF92:AF111">
-    <cfRule type="expression" dxfId="88" priority="74" stopIfTrue="1">
+  <conditionalFormatting sqref="AB92:AB111 AD111">
+    <cfRule type="expression" dxfId="27" priority="74" stopIfTrue="1">
       <formula>OR(AB$15="", AB$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC114 AE114 AG114 AB114:AB121 AD114:AD121 AF114:AF121">
-    <cfRule type="expression" dxfId="87" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="AB32:AC32">
+    <cfRule type="expression" dxfId="26" priority="78" stopIfTrue="1">
+      <formula>OR(AB$11="", AB$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB38:AC40 AB49:AC49">
+    <cfRule type="expression" dxfId="25" priority="77">
+      <formula>OR(AB$12="", AB$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB55:AC57">
+    <cfRule type="expression" dxfId="24" priority="76" stopIfTrue="1">
+      <formula>OR(AB$13="", AB$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC71:AC89">
+    <cfRule type="expression" dxfId="23" priority="70" stopIfTrue="1">
+      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC92:AC110">
+    <cfRule type="expression" dxfId="22" priority="68" stopIfTrue="1">
+      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC111">
+    <cfRule type="expression" dxfId="21" priority="69">
+      <formula>OR(AC$14="", AC$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC114 AE114 AB114:AB121 AD114:AD121">
+    <cfRule type="expression" dxfId="20" priority="73" stopIfTrue="1">
       <formula>OR(AB$17="", AB$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC123:AC126 AE123:AE126 AG123:AG126 AB123:AB132 AD123:AD132 AF123:AF132 AC129 AE129 AG129">
-    <cfRule type="expression" dxfId="86" priority="72">
+  <conditionalFormatting sqref="AC115:AC120">
+    <cfRule type="expression" dxfId="19" priority="66" stopIfTrue="1">
+      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC121">
+    <cfRule type="expression" dxfId="18" priority="67">
+      <formula>OR(AC$14="", AC$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC123:AC126 AE123:AE126 AB123:AB132 AD123:AD132 AC129 AE129">
+    <cfRule type="expression" dxfId="17" priority="72">
       <formula>OR(AB$16="", AB$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC134 AE134 AG134 AB134:AB137 AD134:AD137 AF134:AF137 AC137 AE137 AG137">
-    <cfRule type="expression" dxfId="85" priority="71" stopIfTrue="1">
+  <conditionalFormatting sqref="AC127:AC128">
+    <cfRule type="expression" dxfId="16" priority="65" stopIfTrue="1">
+      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC130:AC132">
+    <cfRule type="expression" dxfId="15" priority="64" stopIfTrue="1">
+      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC134 AE134 AB134:AB137 AD134:AD137 AC137 AE137">
+    <cfRule type="expression" dxfId="14" priority="71" stopIfTrue="1">
       <formula>OR(AB$18="Prohibited", AB$18="")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB21:AG31 AB32:AC32 AE32:AG32">
-    <cfRule type="expression" dxfId="84" priority="78" stopIfTrue="1">
-      <formula>OR(AB$11="", AB$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB34:AG37 AB41:AG48 AB38:AC40 AE38:AG40 AB49:AC49 AE49:AG49">
-    <cfRule type="expression" dxfId="83" priority="77">
-      <formula>OR(AB$12="", AB$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AG54 AB58:AG69 AB55:AC57 AE55:AG57">
-    <cfRule type="expression" dxfId="82" priority="76" stopIfTrue="1">
-      <formula>OR(AB$13="", AB$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC71:AC89">
-    <cfRule type="expression" dxfId="81" priority="70" stopIfTrue="1">
+  <conditionalFormatting sqref="AC135:AC136">
+    <cfRule type="expression" dxfId="13" priority="63" stopIfTrue="1">
       <formula>OR(AC$13="", AC$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC92:AC110">
-    <cfRule type="expression" dxfId="80" priority="68" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC111">
-    <cfRule type="expression" dxfId="79" priority="69">
-      <formula>OR(AC$14="", AC$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC115:AC120">
-    <cfRule type="expression" dxfId="78" priority="66" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC121">
-    <cfRule type="expression" dxfId="77" priority="67">
-      <formula>OR(AC$14="", AC$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC127:AC128">
-    <cfRule type="expression" dxfId="76" priority="65" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC130:AC132">
-    <cfRule type="expression" dxfId="75" priority="64" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC135:AC136">
-    <cfRule type="expression" dxfId="74" priority="63" stopIfTrue="1">
-      <formula>OR(AC$13="", AC$13="Prohibited")</formula>
+  <conditionalFormatting sqref="AD32">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD38:AD40">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+      <formula>OR(AD$11="", AD$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD49">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD71:AD74 AD78:AD89">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD92:AD95 AD99:AD110">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE71:AE89">
-    <cfRule type="expression" dxfId="73" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="62" stopIfTrue="1">
       <formula>OR(AE$13="", AE$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE92:AE110">
-    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="60" stopIfTrue="1">
       <formula>OR(AE$13="", AE$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE111">
-    <cfRule type="expression" dxfId="71" priority="61">
+    <cfRule type="expression" dxfId="5" priority="61">
       <formula>OR(AE$14="", AE$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE115:AE120">
-    <cfRule type="expression" dxfId="70" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="58" stopIfTrue="1">
       <formula>OR(AE$13="", AE$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE121">
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="3" priority="59">
       <formula>OR(AE$14="", AE$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE127:AE128">
-    <cfRule type="expression" dxfId="68" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="57" stopIfTrue="1">
       <formula>OR(AE$13="", AE$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE130:AE132">
-    <cfRule type="expression" dxfId="67" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="56" stopIfTrue="1">
       <formula>OR(AE$13="", AE$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE135:AE136">
-    <cfRule type="expression" dxfId="66" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="55" stopIfTrue="1">
       <formula>OR(AE$13="", AE$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG71:AG89">
-    <cfRule type="expression" dxfId="65" priority="54" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG92:AG110">
-    <cfRule type="expression" dxfId="64" priority="52" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG111">
-    <cfRule type="expression" dxfId="63" priority="53">
-      <formula>OR(AG$14="", AG$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG115:AG120">
-    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG121">
-    <cfRule type="expression" dxfId="61" priority="51">
-      <formula>OR(AG$14="", AG$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG127:AG128">
-    <cfRule type="expression" dxfId="60" priority="49" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG130:AG132">
-    <cfRule type="expression" dxfId="59" priority="48" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG135:AG136">
-    <cfRule type="expression" dxfId="58" priority="47" stopIfTrue="1">
-      <formula>OR(AG$13="", AG$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B82">
-    <cfRule type="expression" dxfId="57" priority="46" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B85">
-    <cfRule type="expression" dxfId="56" priority="45" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="55" priority="44">
-      <formula>OR(B$14="", B$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B103">
-    <cfRule type="expression" dxfId="54" priority="43" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B106">
-    <cfRule type="expression" dxfId="53" priority="42" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D42">
-    <cfRule type="expression" dxfId="52" priority="41" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D54">
-    <cfRule type="expression" dxfId="51" priority="40">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D59">
-    <cfRule type="expression" dxfId="50" priority="39" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80:D85">
-    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D74">
-    <cfRule type="expression" dxfId="48" priority="37">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D79">
-    <cfRule type="expression" dxfId="47" priority="36" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101:D106">
-    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D95">
-    <cfRule type="expression" dxfId="45" priority="34">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:D100">
-    <cfRule type="expression" dxfId="44" priority="33" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F59">
-    <cfRule type="expression" dxfId="43" priority="32">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80:F85">
-    <cfRule type="expression" dxfId="42" priority="31" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F79">
-    <cfRule type="expression" dxfId="41" priority="30">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F106">
-    <cfRule type="expression" dxfId="40" priority="29" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F100">
-    <cfRule type="expression" dxfId="39" priority="28">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H85">
-    <cfRule type="expression" dxfId="38" priority="27" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H106">
-    <cfRule type="expression" dxfId="37" priority="26" stopIfTrue="1">
-      <formula>OR(H$13="", H$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71:J85">
-    <cfRule type="expression" dxfId="36" priority="25" stopIfTrue="1">
-      <formula>OR(J$13="", J$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J106">
-    <cfRule type="expression" dxfId="35" priority="24" stopIfTrue="1">
-      <formula>OR(J$13="", J$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L71:L85">
-    <cfRule type="expression" dxfId="34" priority="23" stopIfTrue="1">
-      <formula>OR(L$15="", L$15="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:L65">
-    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
-      <formula>OR(L$15="", L$15="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N71:N86">
-    <cfRule type="expression" dxfId="32" priority="21" stopIfTrue="1">
-      <formula>OR(N$13="", N$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92:N107">
-    <cfRule type="expression" dxfId="31" priority="20" stopIfTrue="1">
-      <formula>OR(N$13="", N$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P71:P90">
-    <cfRule type="expression" dxfId="30" priority="281">
-      <formula>OR(R$14="", R$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R87:R90">
-    <cfRule type="expression" dxfId="29" priority="282">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P92:P111">
-    <cfRule type="expression" dxfId="28" priority="283" stopIfTrue="1">
-      <formula>OR(R$15="", R$15="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R92:R111">
-    <cfRule type="expression" dxfId="27" priority="284" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P132">
-    <cfRule type="expression" dxfId="26" priority="285">
-      <formula>OR(R$16="", R$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R132">
-    <cfRule type="expression" dxfId="25" priority="286">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21:P32">
-    <cfRule type="expression" dxfId="24" priority="288" stopIfTrue="1">
-      <formula>OR(R$11="", R$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21:R32">
-    <cfRule type="expression" dxfId="23" priority="289" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P49">
-    <cfRule type="expression" dxfId="22" priority="291">
-      <formula>OR(R$12="", R$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R34:R49">
-    <cfRule type="expression" dxfId="21" priority="292">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P51:P69">
-    <cfRule type="expression" dxfId="20" priority="300" stopIfTrue="1">
-      <formula>OR(R$13="", R$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R60:R69">
-    <cfRule type="expression" dxfId="19" priority="301" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R51:R59">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R80:R86">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R71:R79">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>OR(#REF!="", #REF!="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R123:R131">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>OR(R$16="", R$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P123:P131">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR(P$16="", P$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T51:T62">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR(T$12="", T$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T83:T86">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>OR(T$13="", T$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T71:T82">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>OR(T$12="", T$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T104:T107">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>OR(T$13="", T$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T92:T103">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>OR(T$12="", T$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T123:T131">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>OR(T$16="", T$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V71:V85">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>OR(V$13="", V$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V92:V106">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>OR(V$13="", V$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V123:V131">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>OR(V$16="", V$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD38:AD40">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>OR(AD$11="", AD$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD49">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD71:AD74 AD78:AD89">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD92:AD95 AD99:AD110">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>OR(AD$13="", AD$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7962,91 +7791,91 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B34:B35 B83:K84 B92:K93 B104:K105 B71:K72 M71:O72 M83:O84 M92:O93 M104:O105 Q104:Q105 Q92:Q93 D34:D35 F34:F35 H34:H35 J34:J35 L34:L35 N34:N35 P34:P35 R34:R35 B134:AG134 Q9:AG10 B141:AG142 B5:AG7 AF34:AF35 T34:T35 S104:W105 Q71:W72 Q83:W84 S92:W93 Y92:Y93 Y104:Y105 Y71:Y72 Y83:Y84 AA83:AA84 AA92:AA93 AA104:AA105 AA71:AA72 V34:V35 X34:X35 Z34:Z35 AC92:AE93 AC104:AE105 AC71:AE72 AC83:AE84 AG83:AG84 AG92:AG93 AG104:AG105 AG71:AG72 AB34:AB35 AD34:AD35 B139:AG139 B51:K52 B63:K64 M63:AG64 B9:O10 M51:AG52</xm:sqref>
+          <xm:sqref>B34:B35 B83:K84 B92:K93 B104:K105 B71:K72 M71:O72 M83:O84 M92:O93 M104:O105 Q104:Q105 Q92:Q93 D34:D35 F34:F35 H34:H35 J34:J35 L34:L35 N34:N35 P34:P35 R34:R35 B134:AE134 Q9:AE10 B141:AE142 B5:AE7 T34:T35 S104:W105 Q71:W72 Q83:W84 S92:W93 Y92:Y93 Y104:Y105 Y71:Y72 Y83:Y84 AA83:AA84 AA92:AA93 AA104:AA105 AA71:AA72 V34:V35 X34:X35 Z34:Z35 AC92:AE93 AC104:AE105 AC71:AE72 AC83:AE84 AB34:AB35 AD34:AD35 B139:AE139 B51:K52 B63:K64 M63:AE64 B9:O10 M51:AE52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9CD4731-5D38-314E-829D-4358262BBF3E}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B20 B16:B18 C16:C20 D16:D18 D20 E16:E20 F16:F18 F20 G16:G20 H16:H18 H20 I16:I20 J16:J18 J20 K16:K20 L16:L18 L20 M16:M20 N16:N18 N20 O16:O20 P20 Q16:Q20 R20 S16:S20 T16:T18 T20 U16:U20 V16:V18 V20 W16:W20 X16:X18 X20 Y16:Y20 Z16:Z18 Z20 AA16:AA20 P16:P18 AB20 AC16:AC20 AD16:AD18 AD20 AE16:AE20 AF16:AF18 AF20 AG16:AG20 R16:R18 AB16:AB18</xm:sqref>
+          <xm:sqref>B20 B16:B18 C16:C20 D16:D18 D20 E16:E20 F16:F18 F20 G16:G20 H16:H18 H20 I16:I20 J16:J18 J20 K16:K20 L16:L18 L20 M16:M20 N16:N18 N20 O16:O20 P20 Q16:Q20 R20 S16:S20 T16:T18 T20 U16:U20 V16:V18 V20 W16:W20 X16:X18 X20 Y16:Y20 Z16:Z18 Z20 AA16:AA20 P16:P18 AB20 AC16:AC20 AD16:AD18 AD20 AE16:AE20 R16:R18 AB16:AB18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D987583-DF19-C847-98CE-62D957C6A111}">
           <x14:formula1>
             <xm:f>Sheet2!$B$8:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C21 C36 C53 C73 C94 C115 C127 C135 E21 E36 E53 E73 E94 E115 E127 E135 G21 G36 G53 G73 G94 G115 G127 G135 I21 I36 I53 I73 I94 I115 I127 I135 K21 K36 K53 K73 K94 K115 K127 K135 M21 M36 M53 M73 M94 M115 M127 M135 O21 O36 O53 O73 O94 O115 O127 O135 Q21 Q36 Q53 Q73 Q94 Q115 Q127 Q135 S21 S36 S53 S73 S94 S115 S127 S135 U21 U36 U53 U73 U94 U115 U127 U135 W21 W36 W53 W73 W94 W115 W127 W135 Y21 Y36 Y53 Y73 Y94 Y115 Y127 Y135 AA21 AA36 AA53 AA73 AA94 AA115 AA127 AA135 AC21 AC36 AC53 AC73 AC94 AC115 AC127 AC135 AE21 AE36 AE53 AE73 AE94 AE115 AE127 AE135 AG21 AG36 AG53 AG73 AG94 AG115 AG127 AG135</xm:sqref>
+          <xm:sqref>C21 C36 C53 C73 C94 C115 C127 C135 E21 E36 E53 E73 E94 E115 E127 E135 G21 G36 G53 G73 G94 G115 G127 G135 I21 I36 I53 I73 I94 I115 I127 I135 K21 K36 K53 K73 K94 K115 K127 K135 M21 M36 M53 M73 M94 M115 M127 M135 O21 O36 O53 O73 O94 O115 O127 O135 Q21 Q36 Q53 Q73 Q94 Q115 Q127 Q135 S21 S36 S53 S73 S94 S115 S127 S135 U21 U36 U53 U73 U94 U115 U127 U135 W21 W36 W53 W73 W94 W115 W127 W135 Y21 Y36 Y53 Y73 Y94 Y115 Y127 Y135 AA21 AA36 AA53 AA73 AA94 AA115 AA127 AA135 AC21 AC36 AC53 AC73 AC94 AC115 AC127 AC135 AE21 AE36 AE53 AE73 AE94 AE115 AE127 AE135</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A58B297-4176-C142-BFE2-5FAE35D5A495}">
           <x14:formula1>
             <xm:f>Sheet2!$C$8:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C22:C25 C30 C38:C41 C47 C66 C55:C58 C86 C75:C78 C107 C96:C99 E22:E25 E30 E38:E41 E47 E66 E55:E58 E86 E75:E78 E107 E96:E99 G22:G25 G30 G38:G41 G47 G66 G55:G58 G86 G75:G78 G107 G96:G99 I22:I25 I30 I38:I41 I47 I66 I55:I58 I86 I75:I78 I107 I96:I99 K22:K25 K30 K38:K41 K47 K66 K55:K58 K86 K75:K78 K107 K96:K99 M22:M25 M30 M38:M41 M47 M66 M55:M58 M86 M75:M78 M107 M96:M99 O22:O25 O30 O38:O41 O47 O66 O55:O58 O86 O75:O78 O107 O96:O99 Q22:Q25 Q30 Q38:Q41 Q47 Q66 Q55:Q58 Q86 Q75:Q78 Q107 Q96:Q99 S22:S25 S30 S38:S41 S47 S66 S55:S58 S86 S75:S78 S107 S96:S99 U22:U25 U30 U38:U41 U47 U66 U55:U58 U86 U75:U78 U107 U96:U99 W22:W25 W30 W38:W41 W47 W66 W55:W58 W86 W75:W78 W107 W96:W99 Y22:Y25 Y30 Y38:Y41 Y47 Y66 Y55:Y58 Y86 Y75:Y78 Y107 Y96:Y99 AA22:AA25 AA30 AA38:AA41 AA47 AA66 AA55:AA58 AA86 AA75:AA78 AA107 AA96:AA99 AC22:AC25 AC30 AC38:AC41 AC47 AC66 AC55:AC58 AC86 AC75:AC78 AC107 AC96:AC99 AE22:AE25 AE30 AE38:AE41 AE47 AE66 AE55:AE58 AE86 AE75:AE78 AE107 AE96:AE99 AG22:AG25 AG30 AG38:AG41 AG47 AG66 AG55:AG58 AG86 AG75:AG78 AG107 AG96:AG99</xm:sqref>
+          <xm:sqref>C22:C25 C30 C38:C41 C47 C66 C55:C58 C86 C75:C78 C107 C96:C99 E22:E25 E30 E38:E41 E47 E66 E55:E58 E86 E75:E78 E107 E96:E99 G22:G25 G30 G38:G41 G47 G66 G55:G58 G86 G75:G78 G107 G96:G99 I22:I25 I30 I38:I41 I47 I66 I55:I58 I86 I75:I78 I107 I96:I99 K22:K25 K30 K38:K41 K47 K66 K55:K58 K86 K75:K78 K107 K96:K99 M22:M25 M30 M38:M41 M47 M66 M55:M58 M86 M75:M78 M107 M96:M99 O22:O25 O30 O38:O41 O47 O66 O55:O58 O86 O75:O78 O107 O96:O99 Q22:Q25 Q30 Q38:Q41 Q47 Q66 Q55:Q58 Q86 Q75:Q78 Q107 Q96:Q99 S22:S25 S30 S38:S41 S47 S66 S55:S58 S86 S75:S78 S107 S96:S99 U22:U25 U30 U38:U41 U47 U66 U55:U58 U86 U75:U78 U107 U96:U99 W22:W25 W30 W38:W41 W47 W66 W55:W58 W86 W75:W78 W107 W96:W99 Y22:Y25 Y30 Y38:Y41 Y47 Y66 Y55:Y58 Y86 Y75:Y78 Y107 Y96:Y99 AA22:AA25 AA30 AA38:AA41 AA47 AA66 AA55:AA58 AA86 AA75:AA78 AA107 AA96:AA99 AC22:AC25 AC30 AC38:AC41 AC47 AC66 AC55:AC58 AC86 AC75:AC78 AC107 AC96:AC99 AE22:AE25 AE30 AE38:AE41 AE47 AE66 AE55:AE58 AE86 AE75:AE78 AE107 AE96:AE99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38F82449-65ED-2B46-894E-2362DD296097}">
           <x14:formula1>
             <xm:f>Sheet2!$D$8:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C26:C27 C42:C43 C59:C60 C79:C80 C100:C101 C130 E26:E27 E42:E43 E59:E60 E79:E80 E100:E101 E130 G26:G27 G42:G43 G59:G60 G79:G80 G100:G101 G130 I26:I27 I42:I43 I59:I60 I79:I80 I100:I101 I130 K26:K27 K42:K43 K59:K60 K79:K80 K100:K101 K130 M26:M27 M42:M43 M59:M60 M79:M80 M100:M101 M130 O26:O27 O42:O43 O59:O60 O79:O80 O100:O101 O130 Q26:Q27 Q42:Q43 Q59:Q60 Q79:Q80 Q100:Q101 Q130 S26:S27 S42:S43 S59:S60 S79:S80 S100:S101 S130 U26:U27 U42:U43 U59:U60 U79:U80 U100:U101 U130 W26:W27 W42:W43 W59:W60 W79:W80 W100:W101 W130 Y26:Y27 Y42:Y43 Y59:Y60 Y79:Y80 Y100:Y101 Y130 AA26:AA27 AA42:AA43 AA59:AA60 AA79:AA80 AA100:AA101 AA130 AC26:AC27 AC42:AC43 AC59:AC60 AC79:AC80 AC100:AC101 AC130 AE26:AE27 AE42:AE43 AE59:AE60 AE79:AE80 AE100:AE101 AE130 AG26:AG27 AG42:AG43 AG59:AG60 AG79:AG80 AG100:AG101 AG130</xm:sqref>
+          <xm:sqref>C26:C27 C42:C43 C59:C60 C79:C80 C100:C101 C130 E26:E27 E42:E43 E59:E60 E79:E80 E100:E101 E130 G26:G27 G42:G43 G59:G60 G79:G80 G100:G101 G130 I26:I27 I42:I43 I59:I60 I79:I80 I100:I101 I130 K26:K27 K42:K43 K59:K60 K79:K80 K100:K101 K130 M26:M27 M42:M43 M59:M60 M79:M80 M100:M101 M130 O26:O27 O42:O43 O59:O60 O79:O80 O100:O101 O130 Q26:Q27 Q42:Q43 Q59:Q60 Q79:Q80 Q100:Q101 Q130 S26:S27 S42:S43 S59:S60 S79:S80 S100:S101 S130 U26:U27 U42:U43 U59:U60 U79:U80 U100:U101 U130 W26:W27 W42:W43 W59:W60 W79:W80 W100:W101 W130 Y26:Y27 Y42:Y43 Y59:Y60 Y79:Y80 Y100:Y101 Y130 AA26:AA27 AA42:AA43 AA59:AA60 AA79:AA80 AA100:AA101 AA130 AC26:AC27 AC42:AC43 AC59:AC60 AC79:AC80 AC100:AC101 AC130 AE26:AE27 AE42:AE43 AE59:AE60 AE79:AE80 AE100:AE101 AE130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3ED10EF8-8297-B742-B7FC-EF775037FBAF}">
           <x14:formula1>
             <xm:f>Sheet2!$F$8:$F$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C29 C46 C65 C85 C106 E29 E46 E65 E85 E106 G29 G46 G65 G85 G106 I29 I46 I65 I85 I106 K29 K46 K65 K85 K106 M29 M46 M65 M85 M106 O29 O46 O65 O85 O106 Q29 Q46 Q65 Q85 Q106 S29 S46 S65 S85 S106 U29 U46 U65 U85 U106 W29 W46 W65 W85 W106 Y29 Y46 Y65 Y85 Y106 AA29 AA46 AA65 AA85 AA106 AC29 AC46 AC65 AC85 AC106 AE29 AE46 AE65 AE85 AE106 AG29 AG46 AG65 AG85 AG106</xm:sqref>
+          <xm:sqref>C29 C46 C65 C85 C106 E29 E46 E65 E85 E106 G29 G46 G65 G85 G106 I29 I46 I65 I85 I106 K29 K46 K65 K85 K106 M29 M46 M65 M85 M106 O29 O46 O65 O85 O106 Q29 Q46 Q65 Q85 Q106 S29 S46 S65 S85 S106 U29 U46 U65 U85 U106 W29 W46 W65 W85 W106 Y29 Y46 Y65 Y85 Y106 AA29 AA46 AA65 AA85 AA106 AC29 AC46 AC65 AC85 AC106 AE29 AE46 AE65 AE85 AE106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56AE27B-F1BB-6F4F-8428-3E273C820298}">
           <x14:formula1>
             <xm:f>Sheet2!$G$8:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C31 C48 C67 C87 C108 E31 E48 E67 E87 E108 G31 G48 G67 G87 G108 I31 I48 I67 I87 I108 K31 K48 K67 K87 K108 M31 M48 M67 M87 M108 O31 O48 O67 O87 O108 Q31 Q48 Q67 Q87 Q108 S31 S48 S67 S87 S108 U31 U48 U67 U87 U108 W31 W48 W67 W87 W108 Y31 Y48 Y67 Y87 Y108 AA31 AA48 AA67 AA87 AA108 AC31 AC48 AC67 AC87 AC108 AE31 AE48 AE67 AE87 AE108 AG31 AG48 AG67 AG87 AG108</xm:sqref>
+          <xm:sqref>C31 C48 C67 C87 C108 E31 E48 E67 E87 E108 G31 G48 G67 G87 G108 I31 I48 I67 I87 I108 K31 K48 K67 K87 K108 M31 M48 M67 M87 M108 O31 O48 O67 O87 O108 Q31 Q48 Q67 Q87 Q108 S31 S48 S67 S87 S108 U31 U48 U67 U87 U108 W31 W48 W67 W87 W108 Y31 Y48 Y67 Y87 Y108 AA31 AA48 AA67 AA87 AA108 AC31 AC48 AC67 AC87 AC108 AE31 AE48 AE67 AE87 AE108</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{580E3213-A5C6-A842-910E-3BBA6BCAD3A3}">
           <x14:formula1>
             <xm:f>Sheet2!$H$8:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C32 C49 C68 C88 C109 C119 C131 E32 E49 E68 E88 E109 E119 E131 G32 G49 G68 G88 G109 G119 G131 I32 I49 I68 I88 I109 I119 I131 K32 K49 K68 K88 K109 K119 K131 M32 M49 M68 M88 M109 M119 M131 O32 O49 O68 O88 O109 O119 O131 Q32 Q49 Q68 Q88 Q109 Q119 Q131 S32 S49 S68 S88 S109 S119 S131 U32 U49 U68 U88 U109 U119 U131 W32 W49 W68 W88 W109 W119 W131 Y32 Y49 Y68 Y88 Y109 Y119 Y131 AA32 AA49 AA68 AA88 AA109 AA119 AA131 AC32 AC49 AC68 AC88 AC109 AC119 AC131 AE32 AE49 AE68 AE88 AE109 AE119 AE131 AG32 AG49 AG68 AG88 AG109 AG119 AG131</xm:sqref>
+          <xm:sqref>C32 C49 C68 C88 C109 C119 C131 E32 E49 E68 E88 E109 E119 E131 G32 G49 G68 G88 G109 G119 G131 I32 I49 I68 I88 I109 I119 I131 K32 K49 K68 K88 K109 K119 K131 M32 M49 M68 M88 M109 M119 M131 O32 O49 O68 O88 O109 O119 O131 Q32 Q49 Q68 Q88 Q109 Q119 Q131 S32 S49 S68 S88 S109 S119 S131 U32 U49 U68 U88 U109 U119 U131 W32 W49 W68 W88 W109 W119 W131 Y32 Y49 Y68 Y88 Y109 Y119 Y131 AA32 AA49 AA68 AA88 AA109 AA119 AA131 AC32 AC49 AC68 AC88 AC109 AC119 AC131 AE32 AE49 AE68 AE88 AE109 AE119 AE131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A61314F3-A7E4-7D44-BD9C-12BB83BBC7D6}">
           <x14:formula1>
             <xm:f>Sheet2!$I$8:$I$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C37 C54 C74 C95 C116 C136 E37 E54 E74 E95 E116 E136 G37 G54 G74 G95 G116 G136 I37 I54 I74 I95 I116 I136 K37 K54 K74 K95 K116 K136 M37 M54 M74 M95 M116 M136 O37 O54 O74 O95 O116 O136 Q37 Q54 Q74 Q95 Q116 Q136 S37 S54 S74 S95 S116 S136 U37 U54 U74 U95 U116 U136 W37 W54 W74 W95 W116 W136 Y37 Y54 Y74 Y95 Y116 Y136 AA37 AA54 AA74 AA95 AA116 AA136 AC37 AC54 AC74 AC95 AC116 AC136 AE37 AE54 AE74 AE95 AE116 AE136 AG37 AG54 AG74 AG95 AG116 AG136</xm:sqref>
+          <xm:sqref>C37 C54 C74 C95 C116 C136 E37 E54 E74 E95 E116 E136 G37 G54 G74 G95 G116 G136 I37 I54 I74 I95 I116 I136 K37 K54 K74 K95 K116 K136 M37 M54 M74 M95 M116 M136 O37 O54 O74 O95 O116 O136 Q37 Q54 Q74 Q95 Q116 Q136 S37 S54 S74 S95 S116 S136 U37 U54 U74 U95 U116 U136 W37 W54 W74 W95 W116 W136 Y37 Y54 Y74 Y95 Y116 Y136 AA37 AA54 AA74 AA95 AA116 AA136 AC37 AC54 AC74 AC95 AC116 AC136 AE37 AE54 AE74 AE95 AE116 AE136</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{300FFD76-A928-344E-9C47-B16E38D729A1}">
           <x14:formula1>
             <xm:f>Sheet2!$E$8:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C44:C45 C61:C62 C81:C82 C102:C103 C117:C118 C128 E44:E45 E61:E62 E81:E82 E102:E103 E117:E118 E128 G44:G45 G61:G62 G81:G82 G102:G103 G117:G118 G128 I44:I45 I61:I62 I81:I82 I102:I103 I117:I118 I128 K44:K45 K61:K62 K81:K82 K102:K103 K117:K118 K128 M44:M45 M61:M62 M81:M82 M102:M103 M117:M118 M128 O44:O45 O61:O62 O81:O82 O102:O103 O117:O118 O128 Q44:Q45 Q61:Q62 Q81:Q82 Q102:Q103 Q117:Q118 Q128 S44:S45 S61:S62 S81:S82 S102:S103 S117:S118 S128 U44:U45 U61:U62 U81:U82 U102:U103 U117:U118 U128 W44:W45 W61:W62 W81:W82 W102:W103 W117:W118 W128 Y44:Y45 Y61:Y62 Y81:Y82 Y102:Y103 Y117:Y118 Y128 AA44:AA45 AA61:AA62 AA81:AA82 AA102:AA103 AA117:AA118 AA128 AC44:AC45 AC61:AC62 AC81:AC82 AC102:AC103 AC117:AC118 AC128 AE44:AE45 AE61:AE62 AE81:AE82 AE102:AE103 AE117:AE118 AE128 AG44:AG45 AG61:AG62 AG81:AG82 AG102:AG103 AG117:AG118 AG128</xm:sqref>
+          <xm:sqref>C44:C45 C61:C62 C81:C82 C102:C103 C117:C118 C128 E44:E45 E61:E62 E81:E82 E102:E103 E117:E118 E128 G44:G45 G61:G62 G81:G82 G102:G103 G117:G118 G128 I44:I45 I61:I62 I81:I82 I102:I103 I117:I118 I128 K44:K45 K61:K62 K81:K82 K102:K103 K117:K118 K128 M44:M45 M61:M62 M81:M82 M102:M103 M117:M118 M128 O44:O45 O61:O62 O81:O82 O102:O103 O117:O118 O128 Q44:Q45 Q61:Q62 Q81:Q82 Q102:Q103 Q117:Q118 Q128 S44:S45 S61:S62 S81:S82 S102:S103 S117:S118 S128 U44:U45 U61:U62 U81:U82 U102:U103 U117:U118 U128 W44:W45 W61:W62 W81:W82 W102:W103 W117:W118 W128 Y44:Y45 Y61:Y62 Y81:Y82 Y102:Y103 Y117:Y118 Y128 AA44:AA45 AA61:AA62 AA81:AA82 AA102:AA103 AA117:AA118 AA128 AC44:AC45 AC61:AC62 AC81:AC82 AC102:AC103 AC117:AC118 AC128 AE44:AE45 AE61:AE62 AE81:AE82 AE102:AE103 AE117:AE118 AE128</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96F1185A-9CBE-A248-B159-98BD86CFFF06}">
           <x14:formula1>
             <xm:f>Sheet2!$J$8:$J$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C69 C89 C110 C120 C132 E69 E89 E110 E120 E132 G69 G89 G110 G120 G132 I69 I89 I110 I120 I132 K69 K89 K110 K120 K132 M69 M89 M110 M120 M132 O69 O89 O110 O120 O132 Q69 Q89 Q110 Q120 Q132 S69 S89 S110 S120 S132 U69 U89 U110 U120 U132 W69 W89 W110 W120 W132 Y69 Y89 Y110 Y120 Y132 AA69 AA89 AA110 AA120 AA132 AC69 AC89 AC110 AC120 AC132 AE69 AE89 AE110 AE120 AE132 AG69 AG89 AG110 AG120 AG132</xm:sqref>
+          <xm:sqref>C69 C89 C110 C120 C132 E69 E89 E110 E120 E132 G69 G89 G110 G120 G132 I69 I89 I110 I120 I132 K69 K89 K110 K120 K132 M69 M89 M110 M120 M132 O69 O89 O110 O120 O132 Q69 Q89 Q110 Q120 Q132 S69 S89 S110 S120 S132 U69 U89 U110 U120 U132 W69 W89 W110 W120 W132 Y69 Y89 Y110 Y120 Y132 AA69 AA89 AA110 AA120 AA132 AC69 AC89 AC110 AC120 AC132 AE69 AE89 AE110 AE120 AE132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78FD689C-F053-F043-A03C-3E8E3F99305E}">
           <x14:formula1>
             <xm:f>Sheet2!$K$8:$K$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C90 C111 C121 E90 E111 E121 G90 G111 G121 I90 I111 I121 K90 K111 K121 M90 M111 M121 O90 O111 O121 Q90 Q111 Q121 S90 S111 S121 U90 U111 U121 W90 W111 W121 Y90 Y111 Y121 AA90 AA111 AA121 AC90 AC111 AC121 AE90 AE111 AE121 AG90 AG111 AG121</xm:sqref>
+          <xm:sqref>C90 C111 C121 E90 E111 E121 G90 G111 G121 I90 I111 I121 K90 K111 K121 M90 M111 M121 O90 O111 O121 Q90 Q111 Q121 S90 S111 S121 U90 U111 U121 W90 W111 W121 Y90 Y111 Y121 AA90 AA111 AA121 AC90 AC111 AC121 AE90 AE111 AE121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B51C4797-3444-404A-9E4C-DBFFC9217932}">
           <x14:formula1>
             <xm:f>Sheet2!$E$1:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B8 N8 D8 F8 H8 J8 L8 R8 T8 V8 X8 Z8 AB8 AD8 AF8 P8</xm:sqref>
+          <xm:sqref>B8 N8 D8 F8 H8 J8 L8 R8 T8 V8 X8 Z8 AB8 AD8 P8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F03CD1DA-2892-CB4D-9879-60383C06A898}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:AG15</xm:sqref>
+          <xm:sqref>B11:AE15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DA35318-7EA2-274B-865C-ADF124950B07}">
           <x14:formula1>
             <xm:f>Sheet2!B3:B4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 E8 G8 I8 K8 M8 O8 Q8 S8 U8 W8 Y8 AA8 AC8 AE8 AG8</xm:sqref>
+          <xm:sqref>C8 E8 G8 I8 K8 M8 O8 Q8 S8 U8 W8 Y8 AA8 AC8 AE8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8056,10 +7885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8067,83 +7896,165 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>Districts!B1</f>
         <v>UC</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
+        <f>Districts!D1</f>
+        <v>VC</v>
+      </c>
+      <c r="D12" t="str">
+        <f>Districts!F1</f>
+        <v>SC</v>
+      </c>
+      <c r="E12" t="str">
         <f>Districts!H1</f>
         <v>NC</v>
       </c>
-      <c r="D11" t="str">
+      <c r="F12" t="str">
+        <f>Districts!J1</f>
+        <v>MU</v>
+      </c>
+      <c r="G12" t="str">
         <f>Districts!L1</f>
         <v>RN-36</v>
       </c>
-      <c r="E11" t="str">
+      <c r="H12" t="str">
+        <f>Districts!N1</f>
+        <v>RN-54</v>
+      </c>
+      <c r="I12" t="str">
         <f>Districts!P1</f>
         <v>RL</v>
       </c>
-      <c r="F11" t="str">
+      <c r="J12" t="str">
+        <f>Districts!R1</f>
+        <v>RR</v>
+      </c>
+      <c r="K12" t="str">
         <f>Districts!T1</f>
         <v>WF</v>
       </c>
-      <c r="G11" t="str">
-        <f>Districts!W1</f>
-        <v>Units/Special</v>
+      <c r="L12" t="str">
+        <f>Districts!V1</f>
+        <v>IT</v>
+      </c>
+      <c r="M12" t="str">
+        <f>Districts!X1</f>
+        <v>IN</v>
+      </c>
+      <c r="N12" t="str">
+        <f>Districts!Z1</f>
+        <v>FHO</v>
+      </c>
+      <c r="O12" t="str">
+        <f>Districts!AB1</f>
+        <v>HRO</v>
+      </c>
+      <c r="P12" t="str">
+        <f>Districts!AD1</f>
+        <v>MMHO</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>Districts!F1</f>
+        <v>SC</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45153</v>
       </c>
     </row>
   </sheetData>
@@ -8155,13 +8066,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B3:B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D916DA62-38BE-E84F-9734-1FA42CE0016E}">
           <x14:formula1>
             <xm:f>Sheet2!$B$14:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
